--- a/fuentes/contenidos/grado08/guion03/CS_08_03_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion03/CS_08_03_CO_Escaleta.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PLANETA\PLANETA\Grado 8\Guion 08_03\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15915" windowHeight="6945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8796"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="241">
   <si>
     <t>Asignatura</t>
   </si>
@@ -390,9 +395,6 @@
     <t>CS_08_03_CO</t>
   </si>
   <si>
-    <t>El Nuevo Reino de Granada al comenzar el siglo XIX</t>
-  </si>
-  <si>
     <t>La Independencia</t>
   </si>
   <si>
@@ -411,21 +413,12 @@
     <t>Conoce la Expedición Botánica</t>
   </si>
   <si>
-    <t>Presentación que expone las exigencias de los comuneros frente a la aplicación de las Reformas Borbónicas</t>
-  </si>
-  <si>
     <t>Los Derechos del Hombre y del Ciudadano</t>
   </si>
   <si>
     <t>Reflexiona sobre los Derechos del Hombre y del Ciudadano</t>
   </si>
   <si>
-    <t>El Memorial de Agravios</t>
-  </si>
-  <si>
-    <t>Comprende el Memorial de Agravios</t>
-  </si>
-  <si>
     <t>Actividad que permite comprender la posición de Camilo Torres frente a España y la independencia de las colonias</t>
   </si>
   <si>
@@ -516,27 +509,6 @@
     <t>La República de la Nueva Granada (1831-1858)</t>
   </si>
   <si>
-    <t>La Guerra de los Conventillos (1839)</t>
-  </si>
-  <si>
-    <t>Recuerda la Guerra de los Conventillos</t>
-  </si>
-  <si>
-    <t>Actividad que permite sitetizar aspectos generales de la Guerra de los Conventillos</t>
-  </si>
-  <si>
-    <t>La Guerra de los Supremos (1839-1842)</t>
-  </si>
-  <si>
-    <t>Consecuencias de la Guerra de los Supremos (1839-1842)</t>
-  </si>
-  <si>
-    <t>Recuerda la Guerra de los Supremos</t>
-  </si>
-  <si>
-    <t>Actividad para identificar los apellidos de personajes relacionados con la Guerra de los Supremos</t>
-  </si>
-  <si>
     <t>Presidencias de Herrán y Mosquera</t>
   </si>
   <si>
@@ -594,9 +566,6 @@
     <t>Fin de tema</t>
   </si>
   <si>
-    <t>Mapa conceptual del tema El Nuevo Reino de Granada al comenzar el siglo XIX</t>
-  </si>
-  <si>
     <t>Evaluación</t>
   </si>
   <si>
@@ -711,9 +680,6 @@
     <t>Conoce la lucha de Nariño contra el federalismo</t>
   </si>
   <si>
-    <t>Interactivo que permite reflexionar sobre el sufragio universal en las constituciones políticas de la Patria Boba, La Gran Colombia y la República de la Nueva Granada</t>
-  </si>
-  <si>
     <t>La presidencia de Francisco de Paula Santander</t>
   </si>
   <si>
@@ -726,11 +692,35 @@
     <t>Recurso F10-02</t>
   </si>
   <si>
-    <t>Actividades sobre la República de la Nueva Granada</t>
+    <t>Actividad que permite sintetizar los propósitos y características generales de la Expedición Botánica</t>
+  </si>
+  <si>
+    <t>El nuevo Reino de Granada al comenzar el siglo XIX</t>
+  </si>
+  <si>
+    <t>Mapa conceptual del tema El nuevo Reino de Granada al comenzar el siglo XIX</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos sobre el tema El nuevo Reino de Granada al comenzar el siglo XIX</t>
+  </si>
+  <si>
+    <t>El Memorial de agravios</t>
+  </si>
+  <si>
+    <t>La guerra de los Conventillos (1839)</t>
+  </si>
+  <si>
+    <t>La guerra de los Supremos (1839-1842)</t>
+  </si>
+  <si>
+    <t>Consecuencias de la guerra de los Supremos (1839-1842)</t>
+  </si>
+  <si>
+    <t>Presentación que expone las exigencias de los comuneros frente a la aplicación de las Reformas borbónicas</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Actividad para </t>
+      <t>Actividad para reconocer</t>
     </r>
     <r>
       <rPr>
@@ -740,7 +730,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">reconocer </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -753,32 +743,31 @@
     </r>
   </si>
   <si>
-    <t>Actividad que permite sintetizar los propósitos y características generales de la Expedición Botánica</t>
-  </si>
-  <si>
-    <r>
-      <t>Evalúa tus conocimientos sobre el tema</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Nuevo Reino de Granada al comenzar el siglo XIX</t>
-    </r>
+    <t>Comprende el Memorial de agravios</t>
+  </si>
+  <si>
+    <t>Recuerda la guerra de los Conventillos</t>
+  </si>
+  <si>
+    <t>Actividad que permite sitetizar aspectos generales de la guerra de los Conventillos</t>
+  </si>
+  <si>
+    <t>Recuerda la guerra de los Supremos</t>
+  </si>
+  <si>
+    <t>Actividad para identificar los apellidos de personajes relacionados con la guerra de los Supremos</t>
+  </si>
+  <si>
+    <t>Interactivo que permite reflexionar sobre el sufragio universal en las constituciones políticas de la Patria Boba, la Gran Colombia y la República de la Nueva Granada</t>
+  </si>
+  <si>
+    <t>Actividades sobre la República de la Nueva Granada (1839-1858)</t>
+  </si>
+  <si>
+    <t>Montado y editado en greco por Nathalia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asignado a Ana Hoyos para autoría. </t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1300,7 +1289,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1511,37 +1500,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="56.5703125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="41.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="56.5546875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="34" customWidth="1"/>
     <col min="9" max="9" width="11" style="34" customWidth="1"/>
-    <col min="10" max="10" width="62.140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="14" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="34" customWidth="1"/>
-    <col min="16" max="16" width="29.5703125" style="34" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="62.109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="14" customWidth="1"/>
+    <col min="13" max="14" width="9.33203125" style="14" customWidth="1"/>
+    <col min="15" max="15" width="40" style="34" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" style="34" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" style="34" customWidth="1"/>
     <col min="18" max="18" width="23" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.42578125" style="14" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="14" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="14"/>
+    <col min="19" max="19" width="20.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" style="14" customWidth="1"/>
+    <col min="22" max="16384" width="11.44140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1593,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="66"/>
       <c r="B2" s="64"/>
       <c r="C2" s="75"/>
@@ -1631,7 +1620,7 @@
       <c r="T2" s="58"/>
       <c r="U2" s="56"/>
     </row>
-    <row r="3" spans="1:21" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1639,19 +1628,19 @@
         <v>122</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="G3" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -1660,7 +1649,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>20</v>
@@ -1680,19 +1669,19 @@
         <v>6</v>
       </c>
       <c r="R3" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S3" s="51" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="T3" s="52" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="U3" s="50" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>18</v>
       </c>
@@ -1700,19 +1689,19 @@
         <v>122</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>126</v>
-      </c>
       <c r="G4" s="37" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H4" s="19">
         <v>2</v>
@@ -1721,7 +1710,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>20</v>
@@ -1733,7 +1722,9 @@
       <c r="N4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="19"/>
+      <c r="O4" s="19" t="s">
+        <v>240</v>
+      </c>
       <c r="P4" s="19" t="s">
         <v>19</v>
       </c>
@@ -1741,19 +1732,19 @@
         <v>6</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S4" s="50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="U4" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>18</v>
       </c>
@@ -1761,19 +1752,19 @@
         <v>122</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="E5" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="19">
         <v>3</v>
@@ -1782,7 +1773,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>20</v>
@@ -1794,7 +1785,9 @@
       <c r="N5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="19"/>
+      <c r="O5" s="19" t="s">
+        <v>239</v>
+      </c>
       <c r="P5" s="19" t="s">
         <v>19</v>
       </c>
@@ -1802,19 +1795,19 @@
         <v>6</v>
       </c>
       <c r="R5" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S5" s="50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T5" s="52" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="U5" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>18</v>
       </c>
@@ -1822,19 +1815,19 @@
         <v>122</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="E6" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H6" s="19">
         <v>4</v>
@@ -1843,7 +1836,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="K6" s="23" t="s">
         <v>20</v>
@@ -1855,7 +1848,9 @@
       <c r="N6" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O6" s="19"/>
+      <c r="O6" s="19" t="s">
+        <v>239</v>
+      </c>
       <c r="P6" s="19" t="s">
         <v>20</v>
       </c>
@@ -1863,19 +1858,19 @@
         <v>6</v>
       </c>
       <c r="R6" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S6" s="50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T6" s="52" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="U6" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>18</v>
       </c>
@@ -1883,19 +1878,19 @@
         <v>122</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="E7" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="H7" s="19">
         <v>5</v>
@@ -1904,19 +1899,21 @@
         <v>20</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K7" s="23" t="s">
         <v>20</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="19"/>
+      <c r="O7" s="19" t="s">
+        <v>239</v>
+      </c>
       <c r="P7" s="19" t="s">
         <v>20</v>
       </c>
@@ -1924,19 +1921,19 @@
         <v>6</v>
       </c>
       <c r="R7" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S7" s="50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T7" s="52" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="U7" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
@@ -1944,16 +1941,16 @@
         <v>122</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="E8" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="19"/>
@@ -1973,7 +1970,7 @@
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
     </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -1981,19 +1978,19 @@
         <v>122</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H9" s="19">
         <v>6</v>
@@ -2002,7 +1999,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>20</v>
@@ -2014,7 +2011,9 @@
       <c r="N9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="19"/>
+      <c r="O9" s="19" t="s">
+        <v>240</v>
+      </c>
       <c r="P9" s="19" t="s">
         <v>19</v>
       </c>
@@ -2022,19 +2021,19 @@
         <v>6</v>
       </c>
       <c r="R9" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="S9" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="T9" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="S9" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="T9" s="52" t="s">
-        <v>205</v>
-      </c>
       <c r="U9" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
@@ -2042,19 +2041,19 @@
         <v>122</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="E10" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="H10" s="19">
         <v>7</v>
@@ -2063,7 +2062,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K10" s="23" t="s">
         <v>20</v>
@@ -2075,7 +2074,9 @@
       <c r="N10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="19"/>
+      <c r="O10" s="19" t="s">
+        <v>239</v>
+      </c>
       <c r="P10" s="19" t="s">
         <v>19</v>
       </c>
@@ -2083,19 +2084,19 @@
         <v>6</v>
       </c>
       <c r="R10" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S10" s="50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T10" s="52" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="U10" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
@@ -2103,19 +2104,19 @@
         <v>122</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="E11" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>140</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>144</v>
       </c>
       <c r="H11" s="19">
         <v>8</v>
@@ -2124,7 +2125,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K11" s="23" t="s">
         <v>20</v>
@@ -2144,19 +2145,19 @@
         <v>6</v>
       </c>
       <c r="R11" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S11" s="51" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="T11" s="52" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="U11" s="50" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
@@ -2164,19 +2165,19 @@
         <v>122</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="E12" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F12" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>141</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>145</v>
       </c>
       <c r="H12" s="19">
         <v>9</v>
@@ -2185,7 +2186,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K12" s="23" t="s">
         <v>20</v>
@@ -2197,7 +2198,9 @@
       <c r="N12" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="19"/>
+      <c r="O12" s="19" t="s">
+        <v>240</v>
+      </c>
       <c r="P12" s="19" t="s">
         <v>19</v>
       </c>
@@ -2205,19 +2208,19 @@
         <v>6</v>
       </c>
       <c r="R12" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S12" s="50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T12" s="52" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="U12" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
@@ -2225,16 +2228,16 @@
         <v>122</v>
       </c>
       <c r="C13" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="E13" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="19"/>
@@ -2254,7 +2257,7 @@
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
     </row>
-    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
@@ -2262,19 +2265,19 @@
         <v>122</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="E14" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H14" s="19">
         <v>10</v>
@@ -2283,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K14" s="23" t="s">
         <v>20</v>
@@ -2303,19 +2306,19 @@
         <v>6</v>
       </c>
       <c r="R14" s="50" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="S14" s="50" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="T14" s="52" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="U14" s="50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>18</v>
       </c>
@@ -2323,17 +2326,17 @@
         <v>122</v>
       </c>
       <c r="C15" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="E15" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H15" s="19">
         <v>11</v>
@@ -2342,7 +2345,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K15" s="23" t="s">
         <v>20</v>
@@ -2362,19 +2365,19 @@
         <v>6</v>
       </c>
       <c r="R15" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S15" s="50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T15" s="52" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="U15" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>18</v>
       </c>
@@ -2382,17 +2385,17 @@
         <v>122</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="E16" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H16" s="19">
         <v>12</v>
@@ -2401,7 +2404,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K16" s="23" t="s">
         <v>20</v>
@@ -2421,19 +2424,19 @@
         <v>6</v>
       </c>
       <c r="R16" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S16" s="50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T16" s="52" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="U16" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
@@ -2441,13 +2444,13 @@
         <v>122</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
@@ -2468,7 +2471,7 @@
       <c r="T17" s="19"/>
       <c r="U17" s="19"/>
     </row>
-    <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>18</v>
       </c>
@@ -2476,17 +2479,17 @@
         <v>122</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H18" s="19">
         <v>13</v>
@@ -2495,7 +2498,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K18" s="23" t="s">
         <v>20</v>
@@ -2515,19 +2518,19 @@
         <v>6</v>
       </c>
       <c r="R18" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S18" s="50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T18" s="52" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="U18" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
@@ -2535,17 +2538,17 @@
         <v>122</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H19" s="19">
         <v>14</v>
@@ -2554,7 +2557,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="K19" s="23" t="s">
         <v>20</v>
@@ -2574,19 +2577,19 @@
         <v>6</v>
       </c>
       <c r="R19" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S19" s="50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T19" s="52" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="U19" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
@@ -2594,13 +2597,13 @@
         <v>122</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="20"/>
@@ -2621,7 +2624,7 @@
       <c r="T20" s="19"/>
       <c r="U20" s="19"/>
     </row>
-    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>18</v>
       </c>
@@ -2629,19 +2632,19 @@
         <v>122</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="H21" s="19">
         <v>15</v>
@@ -2650,7 +2653,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>20</v>
@@ -2670,19 +2673,19 @@
         <v>6</v>
       </c>
       <c r="R21" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S21" s="50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T21" s="52" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="U21" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>18</v>
       </c>
@@ -2690,16 +2693,16 @@
         <v>122</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
@@ -2719,7 +2722,7 @@
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
     </row>
-    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>18</v>
       </c>
@@ -2727,19 +2730,19 @@
         <v>122</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="H23" s="19">
         <v>16</v>
@@ -2748,7 +2751,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>20</v>
@@ -2760,7 +2763,9 @@
       <c r="N23" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="O23" s="19"/>
+      <c r="O23" s="19" t="s">
+        <v>239</v>
+      </c>
       <c r="P23" s="19" t="s">
         <v>20</v>
       </c>
@@ -2768,19 +2773,19 @@
         <v>6</v>
       </c>
       <c r="R23" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S23" s="50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T23" s="52" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="U23" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>18</v>
       </c>
@@ -2788,13 +2793,13 @@
         <v>122</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="31"/>
@@ -2815,7 +2820,7 @@
       <c r="T24" s="19"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>18</v>
       </c>
@@ -2823,17 +2828,17 @@
         <v>122</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="32" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H25" s="19">
         <v>17</v>
@@ -2842,7 +2847,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="K25" s="23" t="s">
         <v>20</v>
@@ -2862,19 +2867,19 @@
         <v>6</v>
       </c>
       <c r="R25" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S25" s="50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T25" s="52" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="U25" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>18</v>
       </c>
@@ -2882,17 +2887,17 @@
         <v>122</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="20" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="H26" s="19">
         <v>18</v>
@@ -2901,7 +2906,7 @@
         <v>19</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="K26" s="23" t="s">
         <v>20</v>
@@ -2921,19 +2926,19 @@
         <v>6</v>
       </c>
       <c r="R26" s="50" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="S26" s="50" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="T26" s="52" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="U26" s="50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>18</v>
       </c>
@@ -2941,13 +2946,13 @@
         <v>122</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="20"/>
@@ -2968,7 +2973,7 @@
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>18</v>
       </c>
@@ -2976,17 +2981,17 @@
         <v>122</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="20" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H28" s="19">
         <v>19</v>
@@ -2995,7 +3000,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="K28" s="23" t="s">
         <v>20</v>
@@ -3015,19 +3020,19 @@
         <v>6</v>
       </c>
       <c r="R28" s="50" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="S28" s="50" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="T28" s="52" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="U28" s="50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>18</v>
       </c>
@@ -3035,17 +3040,17 @@
         <v>122</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="32" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="H29" s="19">
         <v>20</v>
@@ -3054,7 +3059,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="K29" s="23" t="s">
         <v>20</v>
@@ -3074,19 +3079,19 @@
         <v>6</v>
       </c>
       <c r="R29" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S29" s="50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T29" s="52" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="U29" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>18</v>
       </c>
@@ -3094,17 +3099,17 @@
         <v>122</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="20" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H30" s="19">
         <v>21</v>
@@ -3113,7 +3118,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K30" s="23" t="s">
         <v>20</v>
@@ -3133,19 +3138,19 @@
         <v>6</v>
       </c>
       <c r="R30" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S30" s="50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T30" s="52" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="U30" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>18</v>
       </c>
@@ -3153,15 +3158,15 @@
         <v>122</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="19"/>
       <c r="G31" s="20" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H31" s="19">
         <v>22</v>
@@ -3170,7 +3175,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="K31" s="23" t="s">
         <v>20</v>
@@ -3190,19 +3195,19 @@
         <v>6</v>
       </c>
       <c r="R31" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S31" s="50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T31" s="52" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="U31" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>18</v>
       </c>
@@ -3210,15 +3215,15 @@
         <v>122</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="19"/>
       <c r="G32" s="32" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H32" s="19">
         <v>23</v>
@@ -3227,7 +3232,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K32" s="23" t="s">
         <v>20</v>
@@ -3247,19 +3252,19 @@
         <v>6</v>
       </c>
       <c r="R32" s="50" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="S32" s="50" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="T32" s="52" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="U32" s="50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>18</v>
       </c>
@@ -3267,10 +3272,10 @@
         <v>122</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="19"/>
@@ -3284,7 +3289,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="K33" s="23" t="s">
         <v>20</v>
@@ -3304,7 +3309,7 @@
       <c r="T33" s="19"/>
       <c r="U33" s="19"/>
     </row>
-    <row r="34" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>18</v>
       </c>
@@ -3312,15 +3317,15 @@
         <v>122</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="19"/>
       <c r="G34" s="20" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H34" s="19">
         <v>25</v>
@@ -3329,7 +3334,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="K34" s="23" t="s">
         <v>20</v>
@@ -3349,19 +3354,19 @@
         <v>6</v>
       </c>
       <c r="R34" s="50" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S34" s="50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T34" s="52" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="U34" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>18</v>
       </c>
@@ -3369,15 +3374,15 @@
         <v>122</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="19"/>
       <c r="G35" s="42" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="H35" s="43">
         <v>26</v>
@@ -3404,19 +3409,19 @@
         <v>6</v>
       </c>
       <c r="R35" s="40" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="S35" s="40" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="T35" s="35" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="U35" s="40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="17"/>
@@ -3439,7 +3444,7 @@
       <c r="T36" s="28"/>
       <c r="U36" s="26"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="17"/>
@@ -3462,7 +3467,7 @@
       <c r="T37" s="28"/>
       <c r="U37" s="26"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="17"/>
@@ -3485,7 +3490,7 @@
       <c r="T38" s="28"/>
       <c r="U38" s="26"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
@@ -3508,7 +3513,7 @@
       <c r="T39" s="28"/>
       <c r="U39" s="26"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="17"/>
@@ -3531,7 +3536,7 @@
       <c r="T40" s="28"/>
       <c r="U40" s="26"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
@@ -3554,7 +3559,7 @@
       <c r="T41" s="28"/>
       <c r="U41" s="26"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="17"/>
@@ -3577,7 +3582,7 @@
       <c r="T42" s="28"/>
       <c r="U42" s="26"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="17"/>
@@ -3600,7 +3605,7 @@
       <c r="T43" s="28"/>
       <c r="U43" s="26"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
@@ -3623,7 +3628,7 @@
       <c r="T44" s="28"/>
       <c r="U44" s="26"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
@@ -3646,7 +3651,7 @@
       <c r="T45" s="28"/>
       <c r="U45" s="26"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="17"/>
@@ -3669,7 +3674,7 @@
       <c r="T46" s="28"/>
       <c r="U46" s="26"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="17"/>
@@ -3692,7 +3697,7 @@
       <c r="T47" s="28"/>
       <c r="U47" s="26"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="17"/>
@@ -3715,7 +3720,7 @@
       <c r="T48" s="28"/>
       <c r="U48" s="26"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
@@ -3738,7 +3743,7 @@
       <c r="T49" s="28"/>
       <c r="U49" s="26"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
@@ -3761,7 +3766,7 @@
       <c r="T50" s="28"/>
       <c r="U50" s="26"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="B51" s="16"/>
       <c r="C51" s="17"/>
@@ -3784,7 +3789,7 @@
       <c r="T51" s="28"/>
       <c r="U51" s="26"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="15"/>
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
@@ -3807,7 +3812,7 @@
       <c r="T52" s="28"/>
       <c r="U52" s="26"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="B53" s="16"/>
       <c r="C53" s="17"/>
@@ -3830,7 +3835,7 @@
       <c r="T53" s="28"/>
       <c r="U53" s="26"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="16"/>
       <c r="C54" s="17"/>
@@ -3853,7 +3858,7 @@
       <c r="T54" s="28"/>
       <c r="U54" s="26"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="17"/>
@@ -3876,7 +3881,7 @@
       <c r="T55" s="28"/>
       <c r="U55" s="26"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="17"/>
@@ -3899,7 +3904,7 @@
       <c r="T56" s="28"/>
       <c r="U56" s="26"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="17"/>
@@ -3922,7 +3927,7 @@
       <c r="T57" s="28"/>
       <c r="U57" s="26"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="17"/>
@@ -3945,7 +3950,7 @@
       <c r="T58" s="28"/>
       <c r="U58" s="26"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="17"/>
@@ -3968,7 +3973,7 @@
       <c r="T59" s="28"/>
       <c r="U59" s="26"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="16"/>
       <c r="C60" s="17"/>
@@ -3991,7 +3996,7 @@
       <c r="T60" s="28"/>
       <c r="U60" s="26"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="B61" s="16"/>
       <c r="C61" s="17"/>
@@ -4014,7 +4019,7 @@
       <c r="T61" s="28"/>
       <c r="U61" s="26"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="B62" s="16"/>
       <c r="C62" s="17"/>
@@ -4037,7 +4042,7 @@
       <c r="T62" s="28"/>
       <c r="U62" s="26"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="16"/>
       <c r="C63" s="17"/>
@@ -4060,7 +4065,7 @@
       <c r="T63" s="28"/>
       <c r="U63" s="26"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="17"/>
@@ -4083,7 +4088,7 @@
       <c r="T64" s="28"/>
       <c r="U64" s="26"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="17"/>
@@ -4106,7 +4111,7 @@
       <c r="T65" s="28"/>
       <c r="U65" s="26"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="17"/>
@@ -4129,7 +4134,7 @@
       <c r="T66" s="28"/>
       <c r="U66" s="26"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
       <c r="B67" s="16"/>
       <c r="C67" s="17"/>
@@ -4152,7 +4157,7 @@
       <c r="T67" s="28"/>
       <c r="U67" s="26"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="17"/>
@@ -4175,7 +4180,7 @@
       <c r="T68" s="28"/>
       <c r="U68" s="26"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="15"/>
       <c r="B69" s="16"/>
       <c r="C69" s="17"/>
@@ -4198,7 +4203,7 @@
       <c r="T69" s="28"/>
       <c r="U69" s="26"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="16"/>
       <c r="C70" s="17"/>
@@ -4221,368 +4226,371 @@
       <c r="T70" s="28"/>
       <c r="U70" s="26"/>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <autoFilter ref="A1:U2">
+    <filterColumn colId="12" showButton="0"/>
+  </autoFilter>
   <mergeCells count="20">
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
@@ -4651,30 +4659,30 @@
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1"/>
+    <col min="14" max="14" width="24.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4691,7 +4699,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4715,7 +4723,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4734,7 +4742,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4753,7 +4761,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4769,7 +4777,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4786,7 +4794,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -4803,7 +4811,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4818,7 +4826,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4833,7 +4841,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4848,7 +4856,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4863,7 +4871,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4878,7 +4886,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4893,7 +4901,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4908,7 +4916,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4923,7 +4931,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4938,7 +4946,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -4952,7 +4960,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -4966,7 +4974,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -4980,7 +4988,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -4994,7 +5002,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5009,7 +5017,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5024,7 +5032,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5039,7 +5047,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -5054,7 +5062,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -5069,7 +5077,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5084,7 +5092,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5099,7 +5107,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -5114,7 +5122,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5129,7 +5137,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -5144,7 +5152,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5159,7 +5167,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5174,7 +5182,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5189,7 +5197,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5204,7 +5212,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5219,7 +5227,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5234,7 +5242,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5249,7 +5257,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5264,7 +5272,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5279,7 +5287,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5294,7 +5302,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5309,7 +5317,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5324,7 +5332,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5339,7 +5347,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5354,7 +5362,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5369,7 +5377,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5384,7 +5392,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5399,7 +5407,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5414,7 +5422,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5426,7 +5434,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5438,7 +5446,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5451,7 +5459,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5464,7 +5472,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5477,7 +5485,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -5490,7 +5498,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5503,7 +5511,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5516,7 +5524,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5529,7 +5537,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5542,7 +5550,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5555,7 +5563,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5568,7 +5576,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5581,7 +5589,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5594,7 +5602,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5607,7 +5615,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -5620,7 +5628,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5633,7 +5641,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5646,7 +5654,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -5659,7 +5667,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -5672,7 +5680,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -5685,7 +5693,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -5698,7 +5706,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5712,7 +5720,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5726,7 +5734,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5740,7 +5748,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5754,7 +5762,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5768,7 +5776,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5782,7 +5790,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5796,7 +5804,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5810,7 +5818,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5824,7 +5832,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5838,7 +5846,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5852,7 +5860,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5866,7 +5874,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5880,7 +5888,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5894,7 +5902,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5908,7 +5916,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5922,7 +5930,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5936,7 +5944,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5950,7 +5958,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5964,7 +5972,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5978,7 +5986,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5992,7 +6000,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -6006,7 +6014,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -6020,7 +6028,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -6034,7 +6042,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -6048,7 +6056,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -6062,7 +6070,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -6076,7 +6084,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -6090,7 +6098,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -6104,7 +6112,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6118,7 +6126,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6132,7 +6140,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6146,7 +6154,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6160,7 +6168,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6174,7 +6182,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6188,7 +6196,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6202,7 +6210,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6216,7 +6224,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6230,7 +6238,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6244,7 +6252,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6258,7 +6266,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6272,7 +6280,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6286,7 +6294,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6300,7 +6308,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6314,7 +6322,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6328,7 +6336,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6342,7 +6350,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6356,7 +6364,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6370,7 +6378,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6384,7 +6392,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6398,7 +6406,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6412,7 +6420,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6426,7 +6434,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6440,7 +6448,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6454,7 +6462,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6468,7 +6476,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6482,7 +6490,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6496,7 +6504,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6510,7 +6518,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6524,7 +6532,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6538,7 +6546,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6552,7 +6560,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6566,7 +6574,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>

--- a/fuentes/contenidos/grado08/guion03/CS_08_03_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion03/CS_08_03_CO_Escaleta.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="242">
   <si>
     <t>Asignatura</t>
   </si>
@@ -674,9 +674,6 @@
     <t>Recurso M101AP-01</t>
   </si>
   <si>
-    <t>Recuerda qué fue el Grito de independencia</t>
-  </si>
-  <si>
     <t>Conoce la lucha de Nariño contra el federalismo</t>
   </si>
   <si>
@@ -717,6 +714,30 @@
   </si>
   <si>
     <t>Presentación que expone las exigencias de los comuneros frente a la aplicación de las Reformas borbónicas</t>
+  </si>
+  <si>
+    <t>Comprende el Memorial de agravios</t>
+  </si>
+  <si>
+    <t>Recuerda la guerra de los Conventillos</t>
+  </si>
+  <si>
+    <t>Actividad que permite sitetizar aspectos generales de la guerra de los Conventillos</t>
+  </si>
+  <si>
+    <t>Recuerda la guerra de los Supremos</t>
+  </si>
+  <si>
+    <t>Actividad para identificar los apellidos de personajes relacionados con la guerra de los Supremos</t>
+  </si>
+  <si>
+    <t>Interactivo que permite reflexionar sobre el sufragio universal en las constituciones políticas de la Patria Boba, la Gran Colombia y la República de la Nueva Granada</t>
+  </si>
+  <si>
+    <t>Actividades sobre la República de la Nueva Granada (1839-1858)</t>
+  </si>
+  <si>
+    <t>Montado y editado en greco por Nathalia.</t>
   </si>
   <si>
     <r>
@@ -743,31 +764,13 @@
     </r>
   </si>
   <si>
-    <t>Comprende el Memorial de agravios</t>
-  </si>
-  <si>
-    <t>Recuerda la guerra de los Conventillos</t>
-  </si>
-  <si>
-    <t>Actividad que permite sitetizar aspectos generales de la guerra de los Conventillos</t>
-  </si>
-  <si>
-    <t>Recuerda la guerra de los Supremos</t>
-  </si>
-  <si>
-    <t>Actividad para identificar los apellidos de personajes relacionados con la guerra de los Supremos</t>
-  </si>
-  <si>
-    <t>Interactivo que permite reflexionar sobre el sufragio universal en las constituciones políticas de la Patria Boba, la Gran Colombia y la República de la Nueva Granada</t>
-  </si>
-  <si>
-    <t>Actividades sobre la República de la Nueva Granada (1839-1858)</t>
-  </si>
-  <si>
-    <t>Montado y editado en greco por Nathalia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asignado a Ana Hoyos para autoría. </t>
+    <t>Asignado a Ana Hoyos para autoría. Editado en greco por Nathalia.</t>
+  </si>
+  <si>
+    <t>Recuerda qué fue el grito de Independencia</t>
+  </si>
+  <si>
+    <t>Asignado a Ana Hoyos para autoría.  Editado en greco por Nathalia.</t>
   </si>
 </sst>
 </file>
@@ -1500,9 +1503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1628,7 +1631,7 @@
         <v>122</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>123</v>
@@ -1649,7 +1652,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>20</v>
@@ -1689,7 +1692,7 @@
         <v>122</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>123</v>
@@ -1710,7 +1713,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>20</v>
@@ -1722,8 +1725,8 @@
       <c r="N4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="19" t="s">
-        <v>240</v>
+      <c r="O4" s="30" t="s">
+        <v>239</v>
       </c>
       <c r="P4" s="19" t="s">
         <v>19</v>
@@ -1752,7 +1755,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>123</v>
@@ -1773,7 +1776,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>20</v>
@@ -1786,7 +1789,7 @@
         <v>28</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P5" s="19" t="s">
         <v>19</v>
@@ -1815,7 +1818,7 @@
         <v>122</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>123</v>
@@ -1849,7 +1852,7 @@
         <v>121</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P6" s="19" t="s">
         <v>20</v>
@@ -1878,7 +1881,7 @@
         <v>122</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>123</v>
@@ -1887,10 +1890,10 @@
         <v>126</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H7" s="19">
         <v>5</v>
@@ -1912,7 +1915,7 @@
         <v>36</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P7" s="19" t="s">
         <v>20</v>
@@ -1941,7 +1944,7 @@
         <v>122</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>123</v>
@@ -1978,7 +1981,7 @@
         <v>122</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>123</v>
@@ -1990,7 +1993,7 @@
         <v>134</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="H9" s="19">
         <v>6</v>
@@ -2011,8 +2014,8 @@
       <c r="N9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="19" t="s">
-        <v>240</v>
+      <c r="O9" s="30" t="s">
+        <v>241</v>
       </c>
       <c r="P9" s="19" t="s">
         <v>19</v>
@@ -2041,7 +2044,7 @@
         <v>122</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>123</v>
@@ -2053,7 +2056,7 @@
         <v>137</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H10" s="19">
         <v>7</v>
@@ -2075,7 +2078,7 @@
         <v>36</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P10" s="19" t="s">
         <v>19</v>
@@ -2104,7 +2107,7 @@
         <v>122</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>123</v>
@@ -2165,7 +2168,7 @@
         <v>122</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>123</v>
@@ -2198,8 +2201,8 @@
       <c r="N12" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="19" t="s">
-        <v>240</v>
+      <c r="O12" s="30" t="s">
+        <v>239</v>
       </c>
       <c r="P12" s="19" t="s">
         <v>19</v>
@@ -2228,7 +2231,7 @@
         <v>122</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>123</v>
@@ -2265,7 +2268,7 @@
         <v>122</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>123</v>
@@ -2312,7 +2315,7 @@
         <v>198</v>
       </c>
       <c r="T14" s="52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U14" s="50" t="s">
         <v>199</v>
@@ -2326,7 +2329,7 @@
         <v>122</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>123</v>
@@ -2357,7 +2360,9 @@
       <c r="N15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="19"/>
+      <c r="O15" s="19" t="s">
+        <v>237</v>
+      </c>
       <c r="P15" s="19" t="s">
         <v>19</v>
       </c>
@@ -2385,7 +2390,7 @@
         <v>122</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>123</v>
@@ -2444,7 +2449,7 @@
         <v>122</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>154</v>
@@ -2479,7 +2484,7 @@
         <v>122</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>154</v>
@@ -2538,7 +2543,7 @@
         <v>122</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>154</v>
@@ -2597,13 +2602,13 @@
         <v>122</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>160</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="20"/>
@@ -2632,19 +2637,19 @@
         <v>122</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>160</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H21" s="19">
         <v>15</v>
@@ -2653,7 +2658,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>20</v>
@@ -2693,16 +2698,16 @@
         <v>122</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>160</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
@@ -2730,19 +2735,19 @@
         <v>122</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>160</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H23" s="19">
         <v>16</v>
@@ -2751,7 +2756,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>20</v>
@@ -2764,7 +2769,7 @@
         <v>51</v>
       </c>
       <c r="O23" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P23" s="19" t="s">
         <v>20</v>
@@ -2793,7 +2798,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>160</v>
@@ -2828,7 +2833,7 @@
         <v>122</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>160</v>
@@ -2887,7 +2892,7 @@
         <v>122</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>160</v>
@@ -2932,7 +2937,7 @@
         <v>198</v>
       </c>
       <c r="T26" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U26" s="50" t="s">
         <v>199</v>
@@ -2946,7 +2951,7 @@
         <v>122</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>160</v>
@@ -2981,7 +2986,7 @@
         <v>122</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>160</v>
@@ -3000,7 +3005,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K28" s="23" t="s">
         <v>20</v>
@@ -3040,7 +3045,7 @@
         <v>122</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>160</v>
@@ -3099,7 +3104,7 @@
         <v>122</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>160</v>
@@ -3118,7 +3123,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K30" s="23" t="s">
         <v>20</v>
@@ -3158,7 +3163,7 @@
         <v>122</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>174</v>
@@ -3215,7 +3220,7 @@
         <v>122</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>174</v>
@@ -3272,7 +3277,7 @@
         <v>122</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>179</v>
@@ -3289,7 +3294,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K33" s="23" t="s">
         <v>20</v>
@@ -3317,7 +3322,7 @@
         <v>122</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>179</v>
@@ -3334,7 +3339,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K34" s="23" t="s">
         <v>20</v>
@@ -3374,7 +3379,7 @@
         <v>122</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>179</v>

--- a/fuentes/contenidos/grado08/guion03/CS_08_03_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion03/CS_08_03_CO_Escaleta.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="243">
   <si>
     <t>Asignatura</t>
   </si>
@@ -771,6 +771,9 @@
   </si>
   <si>
     <t>Asignado a Ana Hoyos para autoría.  Editado en greco por Nathalia.</t>
+  </si>
+  <si>
+    <t>Asignado a Ana Hoyos para autoría.</t>
   </si>
 </sst>
 </file>
@@ -984,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1119,7 +1122,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1128,12 +1130,57 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1150,51 +1197,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1503,9 +1505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,101 +1529,101 @@
     <col min="16" max="16" width="16.5546875" style="34" customWidth="1"/>
     <col min="17" max="17" width="20.44140625" style="34" customWidth="1"/>
     <col min="18" max="18" width="23" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26" style="14" customWidth="1"/>
     <col min="20" max="20" width="25.88671875" style="14" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.6640625" style="14" customWidth="1"/>
     <col min="22" max="16384" width="11.44140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="73"/>
-      <c r="O1" s="53" t="s">
+      <c r="N1" s="66"/>
+      <c r="O1" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="P1" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="59" t="s">
+      <c r="R1" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="69" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="66"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="68"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61"/>
       <c r="M2" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="56"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="70"/>
     </row>
     <row r="3" spans="1:21" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1668,19 +1670,19 @@
       <c r="P3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="50">
+      <c r="Q3" s="49">
         <v>6</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="R3" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="U3" s="50" t="s">
+      <c r="U3" s="49" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1731,19 +1733,19 @@
       <c r="P4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="50">
+      <c r="Q4" s="49">
         <v>6</v>
       </c>
-      <c r="R4" s="50" t="s">
+      <c r="R4" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S4" s="50" t="s">
+      <c r="S4" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T4" s="52" t="s">
+      <c r="T4" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="U4" s="50" t="s">
+      <c r="U4" s="49" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1794,19 +1796,19 @@
       <c r="P5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="50">
+      <c r="Q5" s="49">
         <v>6</v>
       </c>
-      <c r="R5" s="50" t="s">
+      <c r="R5" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S5" s="50" t="s">
+      <c r="S5" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T5" s="52" t="s">
+      <c r="T5" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="U5" s="50" t="s">
+      <c r="U5" s="49" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1857,19 +1859,19 @@
       <c r="P6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="50">
+      <c r="Q6" s="49">
         <v>6</v>
       </c>
-      <c r="R6" s="50" t="s">
+      <c r="R6" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S6" s="50" t="s">
+      <c r="S6" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T6" s="52" t="s">
+      <c r="T6" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="U6" s="50" t="s">
+      <c r="U6" s="49" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1920,19 +1922,19 @@
       <c r="P7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="50">
+      <c r="Q7" s="49">
         <v>6</v>
       </c>
-      <c r="R7" s="50" t="s">
+      <c r="R7" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S7" s="50" t="s">
+      <c r="S7" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T7" s="52" t="s">
+      <c r="T7" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="U7" s="50" t="s">
+      <c r="U7" s="49" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2020,19 +2022,19 @@
       <c r="P9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="50">
+      <c r="Q9" s="49">
         <v>6</v>
       </c>
-      <c r="R9" s="50" t="s">
+      <c r="R9" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S9" s="50" t="s">
+      <c r="S9" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T9" s="52" t="s">
+      <c r="T9" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="U9" s="50" t="s">
+      <c r="U9" s="49" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2083,19 +2085,19 @@
       <c r="P10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="50">
+      <c r="Q10" s="49">
         <v>6</v>
       </c>
-      <c r="R10" s="50" t="s">
+      <c r="R10" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S10" s="50" t="s">
+      <c r="S10" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T10" s="52" t="s">
+      <c r="T10" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="U10" s="50" t="s">
+      <c r="U10" s="49" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2144,19 +2146,19 @@
       <c r="P11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="50">
+      <c r="Q11" s="49">
         <v>6</v>
       </c>
-      <c r="R11" s="50" t="s">
+      <c r="R11" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S11" s="51" t="s">
+      <c r="S11" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="T11" s="52" t="s">
+      <c r="T11" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="U11" s="50" t="s">
+      <c r="U11" s="49" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2207,19 +2209,19 @@
       <c r="P12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="50">
+      <c r="Q12" s="49">
         <v>6</v>
       </c>
-      <c r="R12" s="50" t="s">
+      <c r="R12" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="50" t="s">
+      <c r="S12" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T12" s="52" t="s">
+      <c r="T12" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="U12" s="50" t="s">
+      <c r="U12" s="49" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2305,19 +2307,19 @@
       <c r="P14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="50">
+      <c r="Q14" s="49">
         <v>6</v>
       </c>
-      <c r="R14" s="50" t="s">
+      <c r="R14" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="S14" s="50" t="s">
+      <c r="S14" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="T14" s="52" t="s">
+      <c r="T14" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="U14" s="50" t="s">
+      <c r="U14" s="49" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2366,23 +2368,23 @@
       <c r="P15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="50">
+      <c r="Q15" s="49">
         <v>6</v>
       </c>
-      <c r="R15" s="50" t="s">
+      <c r="R15" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S15" s="50" t="s">
+      <c r="S15" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T15" s="52" t="s">
+      <c r="T15" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="U15" s="50" t="s">
+      <c r="U15" s="49" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>18</v>
       </c>
@@ -2421,23 +2423,25 @@
       <c r="N16" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O16" s="19"/>
+      <c r="O16" s="30" t="s">
+        <v>239</v>
+      </c>
       <c r="P16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="50">
+      <c r="Q16" s="49">
         <v>6</v>
       </c>
-      <c r="R16" s="50" t="s">
+      <c r="R16" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S16" s="50" t="s">
+      <c r="S16" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T16" s="52" t="s">
+      <c r="T16" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="U16" s="50" t="s">
+      <c r="U16" s="49" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2515,27 +2519,29 @@
       <c r="N18" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="O18" s="19"/>
+      <c r="O18" s="19" t="s">
+        <v>237</v>
+      </c>
       <c r="P18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="50">
+      <c r="Q18" s="49">
         <v>6</v>
       </c>
-      <c r="R18" s="50" t="s">
+      <c r="R18" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S18" s="50" t="s">
+      <c r="S18" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T18" s="52" t="s">
+      <c r="T18" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="U18" s="50" t="s">
+      <c r="U18" s="49" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
@@ -2574,23 +2580,25 @@
       <c r="N19" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="19"/>
+      <c r="O19" s="30" t="s">
+        <v>239</v>
+      </c>
       <c r="P19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="50">
+      <c r="Q19" s="49">
         <v>6</v>
       </c>
-      <c r="R19" s="50" t="s">
+      <c r="R19" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S19" s="50" t="s">
+      <c r="S19" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T19" s="52" t="s">
+      <c r="T19" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="U19" s="50" t="s">
+      <c r="U19" s="49" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2674,19 +2682,19 @@
       <c r="P21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="50">
+      <c r="Q21" s="49">
         <v>6</v>
       </c>
-      <c r="R21" s="50" t="s">
+      <c r="R21" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S21" s="50" t="s">
+      <c r="S21" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T21" s="52" t="s">
+      <c r="T21" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="U21" s="50" t="s">
+      <c r="U21" s="49" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2774,19 +2782,19 @@
       <c r="P23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="50">
+      <c r="Q23" s="49">
         <v>6</v>
       </c>
-      <c r="R23" s="50" t="s">
+      <c r="R23" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S23" s="50" t="s">
+      <c r="S23" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T23" s="52" t="s">
+      <c r="T23" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="U23" s="50" t="s">
+      <c r="U23" s="49" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2868,19 +2876,19 @@
       <c r="P25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="50">
+      <c r="Q25" s="49">
         <v>6</v>
       </c>
-      <c r="R25" s="50" t="s">
+      <c r="R25" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S25" s="50" t="s">
+      <c r="S25" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T25" s="52" t="s">
+      <c r="T25" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="U25" s="50" t="s">
+      <c r="U25" s="49" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2927,19 +2935,19 @@
       <c r="P26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="50">
+      <c r="Q26" s="49">
         <v>6</v>
       </c>
-      <c r="R26" s="50" t="s">
+      <c r="R26" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="S26" s="50" t="s">
+      <c r="S26" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="T26" s="52" t="s">
+      <c r="T26" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="U26" s="50" t="s">
+      <c r="U26" s="49" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3021,19 +3029,19 @@
       <c r="P28" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="50">
+      <c r="Q28" s="49">
         <v>6</v>
       </c>
-      <c r="R28" s="50" t="s">
+      <c r="R28" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="S28" s="50" t="s">
+      <c r="S28" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="T28" s="52" t="s">
+      <c r="T28" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="U28" s="50" t="s">
+      <c r="U28" s="49" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3080,23 +3088,23 @@
       <c r="P29" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="50">
+      <c r="Q29" s="49">
         <v>6</v>
       </c>
-      <c r="R29" s="50" t="s">
+      <c r="R29" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S29" s="50" t="s">
+      <c r="S29" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T29" s="52" t="s">
+      <c r="T29" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="U29" s="50" t="s">
+      <c r="U29" s="49" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>18</v>
       </c>
@@ -3135,23 +3143,25 @@
       <c r="N30" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O30" s="19"/>
+      <c r="O30" s="30" t="s">
+        <v>239</v>
+      </c>
       <c r="P30" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="50">
+      <c r="Q30" s="49">
         <v>6</v>
       </c>
-      <c r="R30" s="50" t="s">
+      <c r="R30" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S30" s="50" t="s">
+      <c r="S30" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T30" s="52" t="s">
+      <c r="T30" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="U30" s="50" t="s">
+      <c r="U30" s="49" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3196,19 +3206,19 @@
       <c r="P31" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="50">
+      <c r="Q31" s="49">
         <v>6</v>
       </c>
-      <c r="R31" s="50" t="s">
+      <c r="R31" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S31" s="50" t="s">
+      <c r="S31" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T31" s="52" t="s">
+      <c r="T31" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="U31" s="50" t="s">
+      <c r="U31" s="49" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3253,19 +3263,19 @@
       <c r="P32" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="50">
+      <c r="Q32" s="49">
         <v>6</v>
       </c>
-      <c r="R32" s="50" t="s">
+      <c r="R32" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="S32" s="50" t="s">
+      <c r="S32" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="T32" s="52" t="s">
+      <c r="T32" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="U32" s="50" t="s">
+      <c r="U32" s="49" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3351,23 +3361,25 @@
       <c r="N34" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="19"/>
+      <c r="O34" s="19" t="s">
+        <v>242</v>
+      </c>
       <c r="P34" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="50">
+      <c r="Q34" s="49">
         <v>6</v>
       </c>
-      <c r="R34" s="50" t="s">
+      <c r="R34" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="S34" s="50" t="s">
+      <c r="S34" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="T34" s="52" t="s">
+      <c r="T34" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="U34" s="50" t="s">
+      <c r="U34" s="49" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3399,14 +3411,16 @@
       <c r="K35" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="49" t="s">
+      <c r="L35" s="48" t="s">
         <v>8</v>
       </c>
       <c r="M35" s="46"/>
       <c r="N35" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="O35" s="48"/>
+      <c r="O35" s="43" t="s">
+        <v>242</v>
+      </c>
       <c r="P35" s="30" t="s">
         <v>20</v>
       </c>
@@ -4597,6 +4611,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4611,12 +4631,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion03/CS_08_03_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion03/CS_08_03_CO_Escaleta.xlsx
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="243">
   <si>
     <t>Asignatura</t>
   </si>
@@ -987,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1130,18 +1130,36 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1181,23 +1199,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1505,9 +1508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1536,94 +1539,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="54" t="s">
+      <c r="N1" s="72"/>
+      <c r="O1" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="69" t="s">
+      <c r="U1" s="54" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="67"/>
       <c r="M2" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="70"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="55"/>
     </row>
     <row r="3" spans="1:21" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -2678,7 +2681,9 @@
       <c r="N21" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="19"/>
+      <c r="O21" s="19" t="s">
+        <v>237</v>
+      </c>
       <c r="P21" s="19" t="s">
         <v>19</v>
       </c>
@@ -2872,7 +2877,9 @@
       <c r="N25" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="O25" s="19"/>
+      <c r="O25" s="19" t="s">
+        <v>237</v>
+      </c>
       <c r="P25" s="19" t="s">
         <v>19</v>
       </c>
@@ -3084,7 +3091,9 @@
       <c r="N29" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="19"/>
+      <c r="O29" s="19" t="s">
+        <v>237</v>
+      </c>
       <c r="P29" s="19" t="s">
         <v>19</v>
       </c>
@@ -3202,7 +3211,9 @@
       <c r="N31" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="O31" s="19"/>
+      <c r="O31" s="19" t="s">
+        <v>242</v>
+      </c>
       <c r="P31" s="19" t="s">
         <v>19</v>
       </c>
@@ -3259,7 +3270,9 @@
         <v>63</v>
       </c>
       <c r="N32" s="25"/>
-      <c r="O32" s="19"/>
+      <c r="O32" s="19" t="s">
+        <v>242</v>
+      </c>
       <c r="P32" s="19" t="s">
         <v>19</v>
       </c>
@@ -3361,8 +3374,8 @@
       <c r="N34" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="19" t="s">
-        <v>242</v>
+      <c r="O34" s="30" t="s">
+        <v>239</v>
       </c>
       <c r="P34" s="19" t="s">
         <v>19</v>
@@ -3383,7 +3396,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>18</v>
       </c>
@@ -3418,8 +3431,8 @@
       <c r="N35" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="O35" s="43" t="s">
-        <v>242</v>
+      <c r="O35" s="75" t="s">
+        <v>239</v>
       </c>
       <c r="P35" s="30" t="s">
         <v>20</v>
@@ -4611,12 +4624,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4631,6 +4638,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion03/CS_08_03_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion03/CS_08_03_CO_Escaleta.xlsx
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="244">
   <si>
     <t>Asignatura</t>
   </si>
@@ -774,6 +774,9 @@
   </si>
   <si>
     <t>Asignado a Ana Hoyos para autoría.</t>
+  </si>
+  <si>
+    <t>Tomado del original</t>
   </si>
 </sst>
 </file>
@@ -1088,9 +1091,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,12 +1130,60 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1154,53 +1202,8 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1509,8 +1512,8 @@
   <dimension ref="A1:U284"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1539,94 +1542,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="52" t="s">
+      <c r="N1" s="66"/>
+      <c r="O1" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="69" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="65"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="67"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61"/>
       <c r="M2" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="70"/>
     </row>
     <row r="3" spans="1:21" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1669,23 +1672,25 @@
         <v>117</v>
       </c>
       <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
+      <c r="O3" s="13" t="s">
+        <v>237</v>
+      </c>
       <c r="P3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="49">
+      <c r="Q3" s="48">
         <v>6</v>
       </c>
-      <c r="R3" s="49" t="s">
+      <c r="R3" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="S3" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="T3" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="U3" s="49" t="s">
+      <c r="U3" s="48" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1708,7 +1713,7 @@
       <c r="F4" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="36" t="s">
         <v>188</v>
       </c>
       <c r="H4" s="19">
@@ -1717,7 +1722,7 @@
       <c r="I4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="37" t="s">
         <v>238</v>
       </c>
       <c r="K4" s="23" t="s">
@@ -1736,19 +1741,19 @@
       <c r="P4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="49">
+      <c r="Q4" s="48">
         <v>6</v>
       </c>
-      <c r="R4" s="49" t="s">
+      <c r="R4" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S4" s="49" t="s">
+      <c r="S4" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="T4" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="U4" s="49" t="s">
+      <c r="U4" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1799,19 +1804,19 @@
       <c r="P5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="49">
+      <c r="Q5" s="48">
         <v>6</v>
       </c>
-      <c r="R5" s="49" t="s">
+      <c r="R5" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S5" s="49" t="s">
+      <c r="S5" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T5" s="51" t="s">
+      <c r="T5" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="U5" s="49" t="s">
+      <c r="U5" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1843,7 +1848,7 @@
       <c r="I6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="37" t="s">
         <v>190</v>
       </c>
       <c r="K6" s="23" t="s">
@@ -1862,19 +1867,19 @@
       <c r="P6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="49">
+      <c r="Q6" s="48">
         <v>6</v>
       </c>
-      <c r="R6" s="49" t="s">
+      <c r="R6" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S6" s="49" t="s">
+      <c r="S6" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T6" s="51" t="s">
+      <c r="T6" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="U6" s="49" t="s">
+      <c r="U6" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1925,19 +1930,19 @@
       <c r="P7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="49">
+      <c r="Q7" s="48">
         <v>6</v>
       </c>
-      <c r="R7" s="49" t="s">
+      <c r="R7" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S7" s="49" t="s">
+      <c r="S7" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T7" s="51" t="s">
+      <c r="T7" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="U7" s="49" t="s">
+      <c r="U7" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1997,7 +2002,7 @@
       <c r="F9" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="36" t="s">
         <v>240</v>
       </c>
       <c r="H9" s="19">
@@ -2025,19 +2030,19 @@
       <c r="P9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="49">
+      <c r="Q9" s="48">
         <v>6</v>
       </c>
-      <c r="R9" s="49" t="s">
+      <c r="R9" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S9" s="49" t="s">
+      <c r="S9" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T9" s="51" t="s">
+      <c r="T9" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="U9" s="49" t="s">
+      <c r="U9" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2060,7 +2065,7 @@
       <c r="F10" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="36" t="s">
         <v>216</v>
       </c>
       <c r="H10" s="19">
@@ -2088,19 +2093,19 @@
       <c r="P10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="49">
+      <c r="Q10" s="48">
         <v>6</v>
       </c>
-      <c r="R10" s="49" t="s">
+      <c r="R10" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S10" s="49" t="s">
+      <c r="S10" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T10" s="51" t="s">
+      <c r="T10" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="U10" s="49" t="s">
+      <c r="U10" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2145,23 +2150,25 @@
         <v>117</v>
       </c>
       <c r="N11" s="25"/>
-      <c r="O11" s="19"/>
+      <c r="O11" s="19" t="s">
+        <v>237</v>
+      </c>
       <c r="P11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="49">
+      <c r="Q11" s="48">
         <v>6</v>
       </c>
-      <c r="R11" s="49" t="s">
+      <c r="R11" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S11" s="50" t="s">
+      <c r="S11" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="T11" s="51" t="s">
+      <c r="T11" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="U11" s="49" t="s">
+      <c r="U11" s="48" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2212,19 +2219,19 @@
       <c r="P12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="49">
+      <c r="Q12" s="48">
         <v>6</v>
       </c>
-      <c r="R12" s="49" t="s">
+      <c r="R12" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="49" t="s">
+      <c r="S12" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T12" s="51" t="s">
+      <c r="T12" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="U12" s="49" t="s">
+      <c r="U12" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2306,23 +2313,25 @@
         <v>59</v>
       </c>
       <c r="N14" s="25"/>
-      <c r="O14" s="36"/>
+      <c r="O14" s="75" t="s">
+        <v>237</v>
+      </c>
       <c r="P14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="49">
+      <c r="Q14" s="48">
         <v>6</v>
       </c>
-      <c r="R14" s="49" t="s">
+      <c r="R14" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="S14" s="49" t="s">
+      <c r="S14" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="T14" s="51" t="s">
+      <c r="T14" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="U14" s="49" t="s">
+      <c r="U14" s="48" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2371,19 +2380,19 @@
       <c r="P15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="49">
+      <c r="Q15" s="48">
         <v>6</v>
       </c>
-      <c r="R15" s="49" t="s">
+      <c r="R15" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S15" s="49" t="s">
+      <c r="S15" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T15" s="51" t="s">
+      <c r="T15" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="U15" s="49" t="s">
+      <c r="U15" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2432,19 +2441,19 @@
       <c r="P16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="49">
+      <c r="Q16" s="48">
         <v>6</v>
       </c>
-      <c r="R16" s="49" t="s">
+      <c r="R16" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S16" s="49" t="s">
+      <c r="S16" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T16" s="51" t="s">
+      <c r="T16" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="U16" s="49" t="s">
+      <c r="U16" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2528,19 +2537,19 @@
       <c r="P18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="49">
+      <c r="Q18" s="48">
         <v>6</v>
       </c>
-      <c r="R18" s="49" t="s">
+      <c r="R18" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S18" s="49" t="s">
+      <c r="S18" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T18" s="51" t="s">
+      <c r="T18" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="U18" s="49" t="s">
+      <c r="U18" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2589,19 +2598,19 @@
       <c r="P19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="49">
+      <c r="Q19" s="48">
         <v>6</v>
       </c>
-      <c r="R19" s="49" t="s">
+      <c r="R19" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S19" s="49" t="s">
+      <c r="S19" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T19" s="51" t="s">
+      <c r="T19" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="U19" s="49" t="s">
+      <c r="U19" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2618,7 +2627,7 @@
       <c r="D20" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="38" t="s">
         <v>217</v>
       </c>
       <c r="F20" s="19"/>
@@ -2653,7 +2662,7 @@
       <c r="D21" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="38" t="s">
         <v>218</v>
       </c>
       <c r="F21" s="19" t="s">
@@ -2687,19 +2696,19 @@
       <c r="P21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="49">
+      <c r="Q21" s="48">
         <v>6</v>
       </c>
-      <c r="R21" s="49" t="s">
+      <c r="R21" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S21" s="49" t="s">
+      <c r="S21" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T21" s="51" t="s">
+      <c r="T21" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="U21" s="49" t="s">
+      <c r="U21" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2716,7 +2725,7 @@
       <c r="D22" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="38" t="s">
         <v>218</v>
       </c>
       <c r="F22" s="19" t="s">
@@ -2753,7 +2762,7 @@
       <c r="D23" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="38" t="s">
         <v>218</v>
       </c>
       <c r="F23" s="30" t="s">
@@ -2787,19 +2796,19 @@
       <c r="P23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="49">
+      <c r="Q23" s="48">
         <v>6</v>
       </c>
-      <c r="R23" s="49" t="s">
+      <c r="R23" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S23" s="49" t="s">
+      <c r="S23" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T23" s="51" t="s">
+      <c r="T23" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="U23" s="49" t="s">
+      <c r="U23" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2883,19 +2892,19 @@
       <c r="P25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="49">
+      <c r="Q25" s="48">
         <v>6</v>
       </c>
-      <c r="R25" s="49" t="s">
+      <c r="R25" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S25" s="49" t="s">
+      <c r="S25" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T25" s="51" t="s">
+      <c r="T25" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="U25" s="49" t="s">
+      <c r="U25" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2938,23 +2947,25 @@
         <v>59</v>
       </c>
       <c r="N26" s="25"/>
-      <c r="O26" s="36"/>
+      <c r="O26" s="75" t="s">
+        <v>237</v>
+      </c>
       <c r="P26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="49">
+      <c r="Q26" s="48">
         <v>6</v>
       </c>
-      <c r="R26" s="49" t="s">
+      <c r="R26" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="S26" s="49" t="s">
+      <c r="S26" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="T26" s="51" t="s">
+      <c r="T26" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="U26" s="49" t="s">
+      <c r="U26" s="48" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3019,7 +3030,7 @@
       <c r="I28" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="38" t="s">
+      <c r="J28" s="37" t="s">
         <v>235</v>
       </c>
       <c r="K28" s="23" t="s">
@@ -3032,23 +3043,25 @@
         <v>54</v>
       </c>
       <c r="N28" s="25"/>
-      <c r="O28" s="19"/>
+      <c r="O28" s="19" t="s">
+        <v>237</v>
+      </c>
       <c r="P28" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="49">
+      <c r="Q28" s="48">
         <v>6</v>
       </c>
-      <c r="R28" s="49" t="s">
+      <c r="R28" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="S28" s="49" t="s">
+      <c r="S28" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="T28" s="51" t="s">
+      <c r="T28" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="U28" s="49" t="s">
+      <c r="U28" s="48" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3097,19 +3110,19 @@
       <c r="P29" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="49">
+      <c r="Q29" s="48">
         <v>6</v>
       </c>
-      <c r="R29" s="49" t="s">
+      <c r="R29" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S29" s="49" t="s">
+      <c r="S29" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T29" s="51" t="s">
+      <c r="T29" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="U29" s="49" t="s">
+      <c r="U29" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3158,19 +3171,19 @@
       <c r="P30" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="49">
+      <c r="Q30" s="48">
         <v>6</v>
       </c>
-      <c r="R30" s="49" t="s">
+      <c r="R30" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S30" s="49" t="s">
+      <c r="S30" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T30" s="51" t="s">
+      <c r="T30" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="U30" s="49" t="s">
+      <c r="U30" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3217,19 +3230,19 @@
       <c r="P31" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="49">
+      <c r="Q31" s="48">
         <v>6</v>
       </c>
-      <c r="R31" s="49" t="s">
+      <c r="R31" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S31" s="49" t="s">
+      <c r="S31" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T31" s="51" t="s">
+      <c r="T31" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="U31" s="49" t="s">
+      <c r="U31" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3276,19 +3289,19 @@
       <c r="P32" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="49">
+      <c r="Q32" s="48">
         <v>6</v>
       </c>
-      <c r="R32" s="49" t="s">
+      <c r="R32" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="S32" s="49" t="s">
+      <c r="S32" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="T32" s="51" t="s">
+      <c r="T32" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="U32" s="49" t="s">
+      <c r="U32" s="48" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3327,7 +3340,9 @@
       </c>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
-      <c r="O33" s="19"/>
+      <c r="O33" s="19" t="s">
+        <v>243</v>
+      </c>
       <c r="P33" s="19" t="s">
         <v>19</v>
       </c>
@@ -3380,19 +3395,19 @@
       <c r="P34" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="49">
+      <c r="Q34" s="48">
         <v>6</v>
       </c>
-      <c r="R34" s="49" t="s">
+      <c r="R34" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="S34" s="49" t="s">
+      <c r="S34" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="T34" s="51" t="s">
+      <c r="T34" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="U34" s="49" t="s">
+      <c r="U34" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3403,7 +3418,7 @@
       <c r="B35" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="40" t="s">
         <v>222</v>
       </c>
       <c r="D35" s="18" t="s">
@@ -3411,45 +3426,45 @@
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="42" t="s">
+      <c r="G35" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="H35" s="43">
+      <c r="H35" s="42">
         <v>26</v>
       </c>
-      <c r="I35" s="43" t="s">
+      <c r="I35" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="44"/>
-      <c r="K35" s="45" t="s">
+      <c r="J35" s="43"/>
+      <c r="K35" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="48" t="s">
+      <c r="L35" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47" t="s">
+      <c r="M35" s="45"/>
+      <c r="N35" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="O35" s="75" t="s">
+      <c r="O35" s="51" t="s">
         <v>239</v>
       </c>
       <c r="P35" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="40">
+      <c r="Q35" s="39">
         <v>6</v>
       </c>
-      <c r="R35" s="40" t="s">
+      <c r="R35" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="S35" s="40" t="s">
+      <c r="S35" s="39" t="s">
         <v>185</v>
       </c>
       <c r="T35" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="U35" s="40" t="s">
+      <c r="U35" s="39" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4624,6 +4639,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4638,12 +4659,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
